--- a/VerifyBPT.xlsx
+++ b/VerifyBPT.xlsx
@@ -4,16 +4,565 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="BPTConfig" localSheetId="0">Sheet1!$A$2:$F$65</definedName>
+    <definedName name="CL1_PROPERTIES_RANGE1" localSheetId="1">Sheet2!$A$16:$L$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stores the property type for the collection system property</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stores the property name for the collection system property.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stores the value of the collection system property</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The short description of the collection system property.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A full description of the collection system property.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Extra information regarding the constraints placed upon this property of the collection system.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Populated by EPC.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The charge entity type which the charge code is relates to. Indicates the set of attributes that should exist on each charge with the same charge code (and charge entity type).
+CET definitions are exported to Invoicing, where they are used to define charge accumulation, quality assurance, and FYI rules.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicate if the charge is of monetary type or loyalty points charge. 
+M - Monetary
+P - Points</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reference to one of the tax codes defined in the Tax Topic.
+Values from  TX1_TAX_CODE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Populated by EPC.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indicates if the charge is One-Time , Recurring or Usage Charge</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Populated by EPC.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The description for AmDD, CRM is taken from pc1_charge_code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Classification – Used to classify charges into groups, such as credit charges, recurring charges, and usage charges.
+This will help the CSR select the appropriate charge code (in CM online).
+for pending credit should populated according to the below:
+update bl1_charge_code
+set SYS_UPDATE_DATE=sysdate, OPERATOR_ID='6646', APPLICATION_ID='DIBPT9',  
+CLASSIFICATION='Pending Credit' where CHARGE_ENT_TYPE='Pending credit CET'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indicate if the amount in the charge request includes tax. The system in that case take out the tax amount from the gross amount and maintained on the charge the net amount and the tax amount 
+valid values:
+D - INCLUDED_IN_DYN_ATTR 
+E - EXTERNAL 
+F - INCLUDED_IN_FILE 
+I - INCLUDED_IN_AMOUNT 
+N - NOT_INCLUDED
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">not in use for Invoicing.
+For AR Indicates if the Charges will impact the bill immediately or by bill day. 
+Valid values I (Immediate) or P (Pending)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates if to create a Charge in case of zero amounts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicates if tax should be calculated
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reference to messages associated with the charge code. 
+Values from BL1_MESSAGE_CODE table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicates if participate in the Discount calculation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicates whether it's valid to create a charge by Create Charge API.
+If marked as 'Yes' than the CSR is allowed to create a manual charge/credit for the relevant charge code
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The invoice type is A/R attribute and in use in order to group charges. Equal to AR1_CHARGE_CODE.GROUP_TYPE and later used for prioritizing group of charges for cash allocation process (AR)
+Valid values from 
+BL1_GENERIC_CODES.GEN_TYPE=invoiceType table
+Also used for Collection to decide each group of charges, how and if they impact collection (CL1_AR_DEBT_TYPE).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">indicates which voice events are to be grouped together and the order in which sections will be printed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description to be printed as a header in the call detail section for all calls except 1700/1800/1900 calls usage that have call_direction = outgoing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description to be printed as a header in the call detail section for 1700/1800/1900 calls usage that have call_direction = outgoing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ndicates which voice usage charges are to be grouped together and the order in which charges will be printed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description to be printed as the usage charge description, for all calls except 1700/1800/1900 calls usage that have call_direction = outgoing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description to be printed as the usage charge description, for 1700/1800/1900 calls usage that have call_direction = outgoing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicate whether call detail pages should be included in the monthly invoice or not.
+“Y” – Include call details in the monthly invoice
+“N” – Do not Include call details in the monthly invoice
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+will be populated with a message code. AmDD will use this message code to get bundle description from reference table.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Valid Value will be Y when the installment belongs to equipment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30,11 +579,29 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="CL1_PROPERTIES_RANGE1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Jiten\Office\Projects\CNT\BPT_CNT_30062016\work\CL1_PROPERTIES_RANGE1.bad" tab="0" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="222">
   <si>
     <t>Charge Codes</t>
   </si>
@@ -414,14 +981,302 @@
     <t>CL1_AR_FIN_ACTIVITY_RANGE1.ctl</t>
   </si>
   <si>
-    <t>?</t>
+    <t>CL1_POLICIES_RANGE1.ctl</t>
+  </si>
+  <si>
+    <t>Varchar2(10)</t>
+  </si>
+  <si>
+    <t>PTYPE</t>
+  </si>
+  <si>
+    <t>Varchar2(128)</t>
+  </si>
+  <si>
+    <t>PNAME</t>
+  </si>
+  <si>
+    <t>SYS_CREATION_DATE</t>
+  </si>
+  <si>
+    <t>SYS_UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>OPERATOR_ID</t>
+  </si>
+  <si>
+    <t>APPLICATION_ID</t>
+  </si>
+  <si>
+    <t>DL_SERVICE_CODE</t>
+  </si>
+  <si>
+    <t>DL_UPDATE_STAMP</t>
+  </si>
+  <si>
+    <t>Varchar2(255)</t>
+  </si>
+  <si>
+    <t>PVALUE</t>
+  </si>
+  <si>
+    <t>Varchar2(60)</t>
+  </si>
+  <si>
+    <t>SHORT_DESC</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Varchar2(4000)</t>
+  </si>
+  <si>
+    <t>PCONSTRAINTS</t>
+  </si>
+  <si>
+    <t>Varchar2(20)</t>
+  </si>
+  <si>
+    <t>char(5)</t>
+  </si>
+  <si>
+    <t>Number(4)</t>
+  </si>
+  <si>
+    <t>Number(9)</t>
+  </si>
+  <si>
+    <t>char(6)</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>amdocs.cl.updateStepMngmtErrTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMCL1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v800 </t>
+  </si>
+  <si>
+    <t>Update CL1_STEP_MNGMT_ERR table on success of step</t>
+  </si>
+  <si>
+    <t>If the property is set to true then collection will update CL1_STEP_MNGMT_ERR table on successfull completion of step or else will ignore updation</t>
+  </si>
+  <si>
+    <t>VALID_VALS=true;false;Default= false</t>
+  </si>
+  <si>
+    <t>amdocs.cl.pa.TerminatePAByStopCollectionCriteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v750 </t>
+  </si>
+  <si>
+    <t>Whether to Terminate PA By Stop Collection Criteria</t>
+  </si>
+  <si>
+    <t>If this property is enabled, any payments, would be applied  to accounts which are under Payment Arrangement such that if they qualify the exit collection criteria then, the Payment arrangement will be cancelled and collections would be exit.</t>
+  </si>
+  <si>
+    <t>VALID_VALS_FORMAT=true,false</t>
+  </si>
+  <si>
+    <t>Varchar2 (15)</t>
+  </si>
+  <si>
+    <t>Varchar2 (60)</t>
+  </si>
+  <si>
+    <t>CHARGE_ENT_TYPE</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>Varchar2 (6)</t>
+  </si>
+  <si>
+    <t>Char(2)</t>
+  </si>
+  <si>
+    <t>Varchar2(180)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Varchar2 (40)</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>Char(1)</t>
+  </si>
+  <si>
+    <t>Varchar2 (20)</t>
+  </si>
+  <si>
+    <t>VARCHAR2 (30)</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>Varchar2(6)</t>
+  </si>
+  <si>
+    <t>EVENT_GROUP_CODE</t>
+  </si>
+  <si>
+    <t>EVENT_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>EVENT_GROUP_NAME_OUTGOING</t>
+  </si>
+  <si>
+    <t>USAGE_GROUP_CODE</t>
+  </si>
+  <si>
+    <t>USAGE_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>USAGE_GROUP_NAME_OUTGOING</t>
+  </si>
+  <si>
+    <t>INCLUDE_CALL_DETAILS</t>
+  </si>
+  <si>
+    <t>BUNDLE_CODE</t>
+  </si>
+  <si>
+    <t>call_category</t>
+  </si>
+  <si>
+    <t>Originating_1700_ind</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_CHRG_IND</t>
+  </si>
+  <si>
+    <t>bill_section_code</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>SPEED1</t>
+  </si>
+  <si>
+    <t>UPDSPEED</t>
+  </si>
+  <si>
+    <t>SPECTR</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CAMT</t>
+  </si>
+  <si>
+    <t>CORPT</t>
+  </si>
+  <si>
+    <t>EQUIT</t>
+  </si>
+  <si>
+    <t>DECOT</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>DAYOC</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>CONCOC</t>
+  </si>
+  <si>
+    <t>CONCOC2</t>
+  </si>
+  <si>
+    <t>CUNIT</t>
+  </si>
+  <si>
+    <t>WHOUROC</t>
+  </si>
+  <si>
+    <t>RHOUROC</t>
+  </si>
+  <si>
+    <t>gaps_installment</t>
+  </si>
+  <si>
+    <t>CHARGE_CODE</t>
+  </si>
+  <si>
+    <t>CHARGE_QUANTITY</t>
+  </si>
+  <si>
+    <t>TAX_CODE</t>
+  </si>
+  <si>
+    <t>REVENUE_CODE</t>
+  </si>
+  <si>
+    <t>TAX_INCLUDED_IND</t>
+  </si>
+  <si>
+    <t>BALANCE_IMPACT_IND</t>
+  </si>
+  <si>
+    <t>CREATE_ZERO_CHARGE_IND</t>
+  </si>
+  <si>
+    <t>TAX_CALC_IND</t>
+  </si>
+  <si>
+    <t>MESSAGE_CODE</t>
+  </si>
+  <si>
+    <t>DISCOUNTABLE_IND</t>
+  </si>
+  <si>
+    <t>MANUAL_POLICY</t>
+  </si>
+  <si>
+    <t>LOB_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>INVOICE_TYPE</t>
+  </si>
+  <si>
+    <t>Varchar2(100)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +1284,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +1375,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -473,19 +1429,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="% 2 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 5 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -502,6 +1544,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BPTConfig" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CL1_PROPERTIES_RANGE1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,4 +3621,580 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="12">
+        <v>41385.574895833335</v>
+      </c>
+      <c r="D16" s="12">
+        <v>41385.574895833335</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="12">
+        <v>41487.456712962965</v>
+      </c>
+      <c r="D17" s="12">
+        <v>41487.456712962965</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" location="'Messages Entities - Charge'!A1" display="MESSAGE CODE"/>
+    <hyperlink ref="A22" location="'Tax Entity'!A1" display="TAX CODE"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>